--- a/Pjシフト.xlsx
+++ b/Pjシフト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E91D17-54BF-4451-A07C-ABBD4E021C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE35A2-2EB9-4A55-9042-E9528E973685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AD5DB0FB-8449-40A3-9571-FADE5298E53E}"/>
+    <workbookView xWindow="540" yWindow="690" windowWidth="18225" windowHeight="14190" activeTab="1" xr2:uid="{AD5DB0FB-8449-40A3-9571-FADE5298E53E}"/>
   </bookViews>
   <sheets>
     <sheet name="5月シフト" sheetId="2" r:id="rId1"/>
@@ -593,7 +593,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -865,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,22 +896,7 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,31 +911,13 @@
     <xf numFmtId="176" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,12 +932,6 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -981,12 +942,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,140 +956,74 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color theme="8"/>
@@ -1624,43 +1513,43 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="13">
+      <c r="D1" s="10">
         <v>45047</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="10">
         <v>45050</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="10">
         <v>45050</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="10">
         <v>45051</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="10">
         <v>45052</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="10">
         <v>45052</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="10">
         <v>45059</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="10">
         <v>45066</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="10">
         <v>45066</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="10">
         <v>45067</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="10">
         <v>45073</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="10">
         <v>45073</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="10">
         <v>45074</v>
       </c>
     </row>
@@ -1757,57 +1646,57 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="F4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="32" t="s">
+      <c r="K4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="36" t="s">
+      <c r="N4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1819,37 +1708,37 @@
       <c r="D5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>109</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="31" t="s">
         <v>143</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -1857,57 +1746,57 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M6" s="34" t="s">
+      <c r="G6" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="37" t="s">
+      <c r="N6" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1919,37 +1808,37 @@
       <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="31" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="3" t="s">
@@ -1957,57 +1846,57 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="35" t="s">
+      <c r="D8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="37" t="s">
+      <c r="L8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2019,37 +1908,37 @@
       <c r="D9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="K9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="N9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -2057,57 +1946,57 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="35" t="s">
+      <c r="D10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" s="34" t="s">
+      <c r="J10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="37" t="s">
+      <c r="N10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2119,37 +2008,37 @@
       <c r="D11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>109</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="31" t="s">
         <v>143</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -2157,57 +2046,57 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="35" t="s">
+      <c r="E12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" s="37" t="s">
+      <c r="I12" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2219,37 +2108,37 @@
       <c r="D13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="35" t="s">
+      <c r="K13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="34" t="s">
         <v>117</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="10" t="s">
+      <c r="N13" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P13" s="3" t="s">
@@ -2257,57 +2146,57 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="37" t="s">
+      <c r="E14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2319,37 +2208,37 @@
       <c r="D15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="31" t="s">
         <v>116</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="31" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="31" t="s">
         <v>116</v>
       </c>
       <c r="P15" s="3" t="s">
@@ -2357,57 +2246,57 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="34" t="s">
+      <c r="E16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" s="37" t="s">
+      <c r="N16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2419,37 +2308,37 @@
       <c r="D17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="31" t="s">
         <v>143</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O17" s="10" t="s">
+      <c r="N17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P17" s="3" t="s">
@@ -2457,57 +2346,57 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="34" t="s">
+      <c r="E18" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="34" t="s">
+      <c r="K18" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N18" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="P18" s="37" t="s">
+      <c r="N18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2519,37 +2408,37 @@
       <c r="D19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="K19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="10" t="s">
+      <c r="N19" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P19" s="3" t="s">
@@ -2557,57 +2446,57 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="37" t="s">
+      <c r="E20" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2619,37 +2508,37 @@
       <c r="D21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="31" t="s">
         <v>148</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="31" t="s">
         <v>148</v>
       </c>
       <c r="P21" s="3" t="s">
@@ -2657,99 +2546,99 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="34" t="s">
+      <c r="D22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="35" t="s">
+      <c r="K22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="34" t="s">
         <v>117</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="37" t="s">
+      <c r="N22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="10" t="s">
+      <c r="K23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="10" t="s">
+      <c r="N23" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="31" t="s">
         <v>119</v>
       </c>
       <c r="P23" s="3" t="s">
@@ -2757,99 +2646,99 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
+      <c r="A24" s="11">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="E24" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="31" t="s">
         <v>127</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="37" t="s">
+      <c r="N24" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="31" t="s">
         <v>109</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="10" t="s">
+      <c r="K25" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="31" t="s">
         <v>109</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="10" t="s">
+      <c r="N25" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O25" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P25" s="3" t="s">
@@ -2857,99 +2746,99 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="37" t="s">
+      <c r="D26" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="21">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="31" t="s">
         <v>127</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="10" t="s">
+      <c r="K27" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="31" t="s">
         <v>109</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O27" s="10" t="s">
+      <c r="N27" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="31" t="s">
         <v>119</v>
       </c>
       <c r="P27" s="3" t="s">
@@ -2957,99 +2846,99 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+      <c r="A28" s="11">
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="35" t="s">
+      <c r="D28" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="M28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="O28" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="P28" s="37" t="s">
+      <c r="M28" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="10" t="s">
+      <c r="K29" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O29" s="10" t="s">
+      <c r="N29" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P29" s="3" t="s">
@@ -3057,99 +2946,99 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="35" t="s">
+      <c r="D30" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L30" s="35" t="s">
+      <c r="L30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="35" t="s">
+      <c r="N30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O30" s="35" t="s">
+      <c r="O30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="P30" s="37" t="s">
+      <c r="P30" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="15">
         <v>28</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="39" t="s">
+      <c r="D31" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="38" t="s">
+      <c r="M31" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="38" t="s">
         <v>151</v>
       </c>
       <c r="P31" s="3" t="s">
@@ -3157,99 +3046,99 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="11">
         <v>29</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N32" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P32" s="42" t="s">
+      <c r="E32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
+      <c r="A33" s="15">
         <v>30</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="37" t="s">
         <v>127</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="12" t="s">
+      <c r="H33" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="37" t="s">
         <v>117</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="12" t="s">
+      <c r="K33" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="37" t="s">
         <v>117</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O33" s="12" t="s">
+      <c r="N33" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="O33" s="37" t="s">
         <v>117</v>
       </c>
       <c r="P33" s="4" t="s">
@@ -3257,99 +3146,99 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="35" t="s">
+      <c r="D34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K34" s="35" t="s">
+      <c r="J34" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="L34" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M34" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N34" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O34" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P34" s="37" t="s">
+      <c r="L34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="21">
+      <c r="A35" s="15">
         <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="31" t="s">
         <v>122</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L35" s="10" t="s">
+      <c r="K35" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="31" t="s">
         <v>109</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O35" s="10" t="s">
+      <c r="N35" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P35" s="3" t="s">
@@ -3357,99 +3246,99 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="16">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N36" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="P36" s="37" t="s">
+      <c r="D36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O36" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="H37" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="31" t="s">
         <v>122</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" s="10" t="s">
+      <c r="K37" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O37" s="10" t="s">
+      <c r="N37" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O37" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P37" s="3" t="s">
@@ -3457,99 +3346,99 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="16">
+      <c r="A38" s="11">
         <v>35</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" s="34" t="s">
+      <c r="D38" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P38" s="37" t="s">
+      <c r="N38" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="21">
+      <c r="A39" s="15">
         <v>36</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="31" t="s">
         <v>152</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O39" s="10" t="s">
+      <c r="N39" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P39" s="3" t="s">
@@ -3557,99 +3446,99 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
+      <c r="A40" s="11">
         <v>37</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" s="34" t="s">
+      <c r="D40" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L40" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N40" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O40" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P40" s="37" t="s">
+      <c r="N40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="21">
+      <c r="A41" s="15">
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="H41" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="31" t="s">
         <v>122</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L41" s="10" t="s">
+      <c r="K41" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O41" s="10" t="s">
+      <c r="N41" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P41" s="3" t="s">
@@ -3657,199 +3546,199 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="16">
+      <c r="A42" s="11">
         <v>39</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M42" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O42" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P42" s="37" t="s">
+      <c r="D42" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="21">
+      <c r="A43" s="15">
         <v>40</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="E43" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="35" t="s">
         <v>117</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="H43" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="35" t="s">
         <v>117</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L43" s="11" t="s">
+      <c r="K43" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="L43" s="35" t="s">
         <v>122</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="N43" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="P43" s="43" t="s">
+      <c r="N43" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="O43" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="16">
+      <c r="A44" s="11">
         <v>41</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="M44" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="O44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="P44" s="37" t="s">
+      <c r="D44" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45" s="21">
+      <c r="A45" s="15">
         <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="31" t="s">
         <v>127</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N45" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O45" s="10" t="s">
+      <c r="N45" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O45" s="31" t="s">
         <v>109</v>
       </c>
       <c r="P45" s="3" t="s">
@@ -3857,99 +3746,99 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="16">
+      <c r="A46" s="11">
         <v>43</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L46" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="M46" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N46" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="O46" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P46" s="37" t="s">
+      <c r="D46" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O46" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="21">
+      <c r="A47" s="15">
         <v>44</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" s="31" t="s">
         <v>122</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" s="10" t="s">
+      <c r="K47" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O47" s="10" t="s">
+      <c r="N47" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P47" s="3" t="s">
@@ -3957,99 +3846,99 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
+      <c r="A48" s="11">
         <v>45</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K48" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M48" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N48" s="35" t="s">
+      <c r="F48" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="O48" s="35" t="s">
+      <c r="O48" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="P48" s="37" t="s">
+      <c r="P48" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="21">
+      <c r="A49" s="15">
         <v>46</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="31" t="s">
         <v>127</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="31" t="s">
         <v>109</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L49" s="10" t="s">
+      <c r="K49" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L49" s="31" t="s">
         <v>119</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O49" s="10" t="s">
+      <c r="N49" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O49" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P49" s="3" t="s">
@@ -4057,60 +3946,60 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="16">
+      <c r="A50" s="11">
         <v>47</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="35" t="s">
+      <c r="D50" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" s="35" t="s">
+      <c r="G50" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J50" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K50" s="35" t="s">
+      <c r="J50" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L50" s="35" t="s">
+      <c r="L50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="M50" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N50" s="35" t="s">
+      <c r="M50" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="O50" s="35" t="s">
+      <c r="O50" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="P50" s="37" t="s">
+      <c r="P50" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="21">
+      <c r="A51" s="15">
         <v>48</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -4119,37 +4008,37 @@
       <c r="D51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>109</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="H51" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K51" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" s="10" t="s">
+      <c r="K51" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="31" t="s">
         <v>117</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N51" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O51" s="10" t="s">
+      <c r="N51" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="31" t="s">
         <v>122</v>
       </c>
       <c r="P51" s="3" t="s">
@@ -4157,57 +4046,57 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="16">
+      <c r="A52" s="11">
         <v>49</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G52" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K52" s="35" t="s">
+      <c r="G52" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K52" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="L52" s="35" t="s">
+      <c r="L52" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="M52" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N52" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="O52" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="P52" s="37" t="s">
+      <c r="M52" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="O52" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="21">
+      <c r="A53" s="15">
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -4219,37 +4108,37 @@
       <c r="D53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>119</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="31" t="s">
         <v>117</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="31" t="s">
         <v>127</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N53" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O53" s="10" t="s">
+      <c r="N53" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O53" s="31" t="s">
         <v>117</v>
       </c>
       <c r="P53" s="3" t="s">
@@ -4257,57 +4146,57 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="16">
+      <c r="A54" s="11">
         <v>51</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="35" t="s">
+      <c r="E54" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="I54" s="35" t="s">
+      <c r="I54" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="J54" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="M54" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="N54" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="O54" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="P54" s="37" t="s">
+      <c r="J54" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="O54" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55" s="21">
+      <c r="A55" s="15">
         <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -4319,37 +4208,37 @@
       <c r="D55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="31" t="s">
         <v>116</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="31" t="s">
         <v>116</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N55" s="10" t="s">
+      <c r="N55" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="O55" s="10" t="s">
+      <c r="O55" s="31" t="s">
         <v>116</v>
       </c>
       <c r="P55" s="3" t="s">
@@ -4357,46 +4246,46 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+      <c r="A56" s="11">
         <v>53</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="29"/>
+      <c r="E56" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="44"/>
-      <c r="H56" s="10" t="s">
+      <c r="G56" s="29"/>
+      <c r="H56" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="J56" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K56" s="10" t="s">
+      <c r="J56" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="31" t="s">
         <v>109</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="O56" s="46"/>
-      <c r="P56" s="47" t="s">
+      <c r="O56" s="33"/>
+      <c r="P56" s="30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4443,18 +4332,190 @@
     </row>
   </sheetData>
   <mergeCells count="212">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:O47"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
@@ -4471,288 +4532,116 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="43" stopIfTrue="1">
       <formula>C$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="44" stopIfTrue="1">
       <formula>C$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
       <formula>C$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:P1">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
       <formula>D$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="41" stopIfTrue="1">
       <formula>D$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="42" stopIfTrue="1">
       <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>D$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>D$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:F57">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>E$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>E$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>E$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
       <formula>G$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>G$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>G$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:I57">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>H$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>H$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>H$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>J$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>J$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>J$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:L57">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>K$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>K$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>K$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57:P57">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>M$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>M$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>M$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4765,2338 +4654,2379 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="14">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="46">
         <v>45080</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="46">
         <v>45080</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="46">
         <v>45081</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="46">
         <v>45081</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="46">
         <v>45087</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="46">
         <v>45087</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="46">
         <v>45088</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="46">
         <v>45091</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="46">
         <v>45094</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1" s="46">
         <v>45101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="15">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="47">
         <v>38</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="47">
         <v>61</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="47">
         <v>37</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="47">
         <v>20</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="47">
         <v>79</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="47">
         <v>51</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="47">
         <v>26</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="47">
         <v>24</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="47">
         <v>62</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="47">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="48" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="20" t="s">
+      <c r="H4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" s="24" t="s">
+      <c r="I5" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="50">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="50">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="24" t="s">
+      <c r="H7" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="24" t="s">
+      <c r="L7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+      <c r="A8" s="50">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="D8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="G8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="20" t="s">
+      <c r="K8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="50">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="D9" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="24" t="s">
+      <c r="K9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
+      <c r="A10" s="50">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="I10" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="50">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="28" t="s">
+      <c r="D11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="50">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="G12" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="20" t="s">
+      <c r="K12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="50">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="28" t="s">
+      <c r="H13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="26" t="s">
+      <c r="K13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
+      <c r="A14" s="50">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="29" t="s">
+      <c r="H14" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="20" t="s">
+      <c r="K14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="50">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
+      <c r="A16" s="50">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="K16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="50">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="D17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="24" t="s">
+      <c r="L17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
+      <c r="A18" s="50">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
+      <c r="A19" s="50">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="24" t="s">
+      <c r="E19" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
+      <c r="A20" s="50">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" s="20" t="s">
+      <c r="D20" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="20" t="s">
+      <c r="K20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
+      <c r="A21" s="50">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="D21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="24" t="s">
+      <c r="J21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L21" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M21" s="24" t="s">
+      <c r="L21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="A22" s="50">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M22" s="20" t="s">
+      <c r="D22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="A23" s="50">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="24" t="s">
+      <c r="H23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="24" t="s">
+      <c r="K23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
+      <c r="A24" s="50">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="28" t="s">
+      <c r="H24" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" s="20" t="s">
+      <c r="L24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+      <c r="A25" s="50">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="22" t="s">
+      <c r="D25" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="24" t="s">
+      <c r="J25" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+      <c r="A26" s="50">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" s="20" t="s">
+      <c r="D26" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="21">
+      <c r="A27" s="50">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+      <c r="A28" s="50">
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="20" t="s">
+      <c r="D28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="20" t="s">
+      <c r="K28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
+      <c r="A29" s="50">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="24" t="s">
+      <c r="H29" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M29" s="24" t="s">
+      <c r="L29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+      <c r="A30" s="50">
         <v>27</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="D30" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L30" s="20" t="s">
+      <c r="H30" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M30" s="20"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="50">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="22" t="s">
+      <c r="D31" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="24" t="s">
+      <c r="H31" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="24" t="s">
+      <c r="K31" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="16">
+      <c r="A32" s="50">
         <v>29</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="23" t="s">
+      <c r="E32" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" s="20" t="s">
+      <c r="G32" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
+      <c r="A33" s="50">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="24" t="s">
+      <c r="D33" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="24" t="s">
+      <c r="K33" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M33" s="24" t="s">
+      <c r="M33" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="50">
         <v>31</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" s="20" t="s">
+      <c r="F34" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="21">
+      <c r="A35" s="50">
         <v>32</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L35" s="24" t="s">
+      <c r="D35" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="16">
+      <c r="A36" s="50">
         <v>33</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="18" t="s">
+      <c r="D36" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="20" t="s">
+      <c r="J36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
+      <c r="A37" s="50">
         <v>34</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="22" t="s">
+      <c r="D37" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H37" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="24" t="s">
+      <c r="H37" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M37" s="24" t="s">
+      <c r="K37" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="16">
+      <c r="A38" s="50">
         <v>35</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" s="20" t="s">
+      <c r="D38" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="21">
+      <c r="A39" s="50">
         <v>36</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="22" t="s">
+      <c r="D39" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="J39" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M39" s="24" t="s">
+      <c r="J39" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
+      <c r="A40" s="50">
         <v>37</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="20" t="s">
+      <c r="E40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K40" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L40" s="20" t="s">
+      <c r="K40" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M40" s="20" t="s">
+      <c r="M40" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="21">
+      <c r="A41" s="50">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="D41" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J41" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M41" s="24" t="s">
+      <c r="J41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="16">
+      <c r="A42" s="50">
         <v>39</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M42" s="20" t="s">
+      <c r="D42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="21">
+      <c r="A43" s="50">
         <v>40</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="22" t="s">
+      <c r="D43" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L43" s="24" t="s">
+      <c r="H43" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M43" s="24" t="s">
+      <c r="M43" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="16">
+      <c r="A44" s="50">
         <v>41</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" s="20" t="s">
+      <c r="F44" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M44" s="20" t="s">
+      <c r="K44" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="21">
+      <c r="A45" s="50">
         <v>42</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="22" t="s">
+      <c r="D45" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="24" t="s">
+      <c r="J45" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M45" s="24" t="s">
+      <c r="M45" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="16">
+      <c r="A46" s="50">
         <v>43</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M46" s="20" t="s">
+      <c r="D46" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="21">
+      <c r="A47" s="50">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" s="24" t="s">
+      <c r="H47" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M47" s="24" t="s">
+      <c r="M47" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
+      <c r="A48" s="50">
         <v>45</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="18" t="s">
+      <c r="E48" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K48" s="20" t="s">
+      <c r="H48" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L48" s="20" t="s">
+      <c r="L48" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M48" s="20" t="s">
+      <c r="M48" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="21">
+      <c r="A49" s="50">
         <v>46</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="22" t="s">
+      <c r="D49" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H49" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K49" s="24" t="s">
+      <c r="H49" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="L49" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M49" s="24" t="s">
+      <c r="M49" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="16">
+      <c r="A50" s="50">
         <v>47</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="18" t="s">
+      <c r="D50" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K50" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="20" t="s">
+      <c r="K50" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="21">
+      <c r="A51" s="50">
         <v>48</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" s="24" t="s">
+      <c r="D51" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M51" s="24" t="s">
+      <c r="M51" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="16">
+      <c r="A52" s="50">
         <v>49</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="18" t="s">
+      <c r="D52" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="20" t="s">
+      <c r="H52" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="20" t="s">
+      <c r="K52" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="21">
+      <c r="A53" s="50">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F53" s="22" t="s">
+      <c r="D53" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J53" s="24" t="s">
+      <c r="H53" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M53" s="24" t="s">
+      <c r="K53" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="16">
+      <c r="A54" s="50">
         <v>51</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="18" t="s">
+      <c r="D54" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M54" s="20" t="s">
+      <c r="H54" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="21">
+      <c r="A55" s="50">
         <v>52</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="22" t="s">
+      <c r="D55" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="H55" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="24" t="s">
+      <c r="H55" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M55" s="24" t="s">
+      <c r="M55" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="16">
+      <c r="A56" s="50">
         <v>53</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H56" s="18" t="s">
+      <c r="D56" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K56" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="L56" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M56" s="20" t="s">
+      <c r="K56" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56" s="13" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="D56:E56"/>
@@ -7121,115 +7051,74 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="56" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>C$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>C$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
       <formula>C$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>D$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>D$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
